--- a/Run 2/Run2PerformanceData.xlsx
+++ b/Run 2/Run2PerformanceData.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amose\Documents\GitHub\CTLiverSegmentation\Run 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A25A76-BC7C-420A-8A27-4D4E6DC63D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C928E4E-124D-4426-943F-1BE16EF225AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Standard Training" sheetId="4" r:id="rId1"/>
-    <sheet name="Standard Encoder" sheetId="3" r:id="rId2"/>
-    <sheet name="Progressive Encoder" sheetId="7" r:id="rId3"/>
-    <sheet name="Pre-Training Phase 2" sheetId="5" r:id="rId4"/>
-    <sheet name="Joint Training" sheetId="1" r:id="rId5"/>
+    <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
+    <sheet name="Standard Training" sheetId="4" r:id="rId2"/>
+    <sheet name="Standard Encoder" sheetId="3" r:id="rId3"/>
+    <sheet name="Progressive Encoder" sheetId="7" r:id="rId4"/>
+    <sheet name="Standard Pre-Training" sheetId="8" r:id="rId5"/>
+    <sheet name="Progressive Pre-Training" sheetId="5" r:id="rId6"/>
+    <sheet name="Joint Training" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>Iteration</t>
   </si>
@@ -50,6 +52,39 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Dice Score:</t>
+  </si>
+  <si>
+    <t>Hausdorff Distance:</t>
+  </si>
+  <si>
+    <t>Joint vs Standard Training</t>
+  </si>
+  <si>
+    <t>Standard Pre-Training vs Standard Training</t>
+  </si>
+  <si>
+    <t>Progressive Pre-Training vs Standard Training</t>
+  </si>
+  <si>
+    <t>Progressive vs Standard Encoder</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>F1 Score:</t>
+  </si>
+  <si>
+    <t>Progressive Pre-Training vs Standard Pre-Training</t>
+  </si>
+  <si>
+    <t>Progressive Pre-Training vs Joint Training</t>
+  </si>
+  <si>
+    <t>Standard Pre-Training vs Joint Training</t>
   </si>
 </sst>
 </file>
@@ -147,6 +182,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECC1DCBB-E872-4D81-8A98-CF47BB1A52B8}" name="Table1357" displayName="Table1357" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{68526608-18A6-43D5-A098-73580A4C681B}" name="Iteration"/>
+    <tableColumn id="2" xr3:uid="{0254A2EC-4025-48A2-89D8-BF85854B7570}" name="Dice Score"/>
+    <tableColumn id="3" xr3:uid="{4E37900F-8F42-4D9F-B7C7-2C2CD1A0273E}" name="Hausdorff Distance"/>
+    <tableColumn id="4" xr3:uid="{6422C4BC-43E2-4690-88B6-49E8BBF6DE34}" name="Classification Accuracy"/>
+    <tableColumn id="5" xr3:uid="{3001328F-48C2-408B-939C-12A8C6CC5EB5}" name="Classification F1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6FB4711C-FEAB-46E5-BBE5-75F1744FD7F2}" name="Table135" displayName="Table135" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -160,7 +209,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <autoFilter ref="A1:E13" xr:uid="{BD452D96-A07E-4E00-990D-EAB75B65AFCF}"/>
   <tableColumns count="5">
@@ -470,10 +519,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Joint Training'!B2:B11, 2, 1)</f>
+        <v>1.4263275503891221E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Joint Training'!C2:C11, 2, 1)</f>
+        <v>5.4018843288126967E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Progressive Pre-Training'!B2:B11, 2, 1)</f>
+        <v>0.79373951790732544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Progressive Pre-Training'!C2:C11, 2, 1)</f>
+        <v>0.39506537083754378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.T.TEST('Standard Training'!B2:B11, 'Standard Pre-Training'!B2:B11, 2, 1)</f>
+        <v>0.93206183606003201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.T.TEST('Standard Training'!C2:C11, 'Standard Pre-Training'!C2:C11, 2, 1)</f>
+        <v>0.9854985916873148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.T.TEST('Standard Encoder'!B2:B11, 'Progressive Encoder'!B2:B11, 2, 1)</f>
+        <v>0.85619522263495229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.T.TEST('Standard Encoder'!C2:C11, 'Progressive Encoder'!C2:C11, 2, 1)</f>
+        <v>2.9371611984156704E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!B2:B11, 'Progressive Pre-Training'!B2:B11, 2, 1)</f>
+        <v>0.73831284993915558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!C2:C11, 'Progressive Pre-Training'!C2:C11, 2, 1)</f>
+        <v>0.39625705698771296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!D2:D11, 'Progressive Pre-Training'!D2:D11, 2, 1)</f>
+        <v>0.73789228846612565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!E2:E11, 'Progressive Pre-Training'!E2:E11, 2, 1)</f>
+        <v>8.3169199108705419E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.T.TEST('Progressive Pre-Training'!B2:B11, 'Joint Training'!B2:B11, 2, 1)</f>
+        <v>1.8361830828737818E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f>_xlfn.T.TEST('Progressive Pre-Training'!C2:C11, 'Joint Training'!C2:C11, 2, 1)</f>
+        <v>6.0426543279582655E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.T.TEST('Progressive Pre-Training'!D2:D11, 'Joint Training'!D2:D11, 2, 1)</f>
+        <v>3.3099555627477564E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <f>_xlfn.T.TEST('Progressive Pre-Training'!E2:E11, 'Joint Training'!E2:E11, 2, 1)</f>
+        <v>2.9079273386444404E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!B2:B11, 'Joint Training'!B2:B11, 2, 1)</f>
+        <v>1.6236105699244489E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!C2:C11, 'Joint Training'!C2:C11, 2, 1)</f>
+        <v>0.10091238524975189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!D2:D11, 'Joint Training'!D2:D11, 2, 1)</f>
+        <v>6.1288711675184551E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <f>_xlfn.T.TEST('Standard Pre-Training'!E2:E11, 'Joint Training'!E2:E11, 2, 1)</f>
+        <v>0.18302179395377466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE7B198-A19B-493B-B085-8D5AE4C3117E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -637,12 +919,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF4FB45-6C4B-4127-8892-2AD9A0D7C43B}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74515E72-5DD0-4C33-8FA0-40A3E3CCEED1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -975,12 +1257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472261B6-2D20-49A4-98B9-BC381614F9FC}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A37C62-578C-45F3-9A8F-884A7E8B8A10}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,92 +1291,212 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.85909999999999997</v>
+      </c>
+      <c r="C2">
+        <v>13.8931</v>
+      </c>
+      <c r="D2">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="C3">
+        <v>14.757999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.49080000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="C4">
+        <v>19.650600000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="C5">
+        <v>13.242000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="C6">
+        <v>15.421200000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="C7">
+        <v>20.543500000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0.8115</v>
+      </c>
+      <c r="C8">
+        <v>18.927</v>
+      </c>
+      <c r="D8">
+        <v>0.63039999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.18160000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="C9">
+        <v>11.7019</v>
+      </c>
+      <c r="D9">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.52080000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="C10">
+        <v>20.968</v>
+      </c>
+      <c r="D10">
+        <v>0.49490000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="C11">
+        <v>8.2835999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.52139999999999997</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="e">
+      <c r="B12">
         <f>AVERAGE(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" t="e">
+        <v>0.85827000000000009</v>
+      </c>
+      <c r="C12">
         <f t="shared" ref="C12:E12" si="0">AVERAGE(C2:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" t="e">
+        <v>15.738889999999998</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" t="e">
+        <v>0.5171</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.38001999999999991</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="e">
+      <c r="B13">
         <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" t="e">
+        <v>3.2837683298985093E-2</v>
+      </c>
+      <c r="C13">
         <f t="shared" ref="C13:E13" si="1">_xlfn.STDEV.S(C2:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" t="e">
+        <v>4.19624830995234</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" t="e">
+        <v>4.0467847319404886E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.22613507173073952</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1507,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472261B6-2D20-49A4-98B9-BC381614F9FC}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="C2">
+        <v>23.180399999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="C3">
+        <v>13.953200000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="C4">
+        <v>8.1074999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="C5">
+        <v>18.9391</v>
+      </c>
+      <c r="D5">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="C6">
+        <v>16.858799999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.5101</v>
+      </c>
+      <c r="E6">
+        <v>0.52449999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="C7">
+        <v>23.938600000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C8">
+        <v>16.943100000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.52410000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="C9">
+        <v>13.4986</v>
+      </c>
+      <c r="D9">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.52249999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.8548</v>
+      </c>
+      <c r="C10">
+        <v>24.421500000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.52139999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="C11">
+        <v>13.444800000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E11">
+        <v>0.50249999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.85316999999999987</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:E12" si="0">AVERAGE(C2:C11)</f>
+        <v>17.32856</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.51205000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.5202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>3.2935021886536943E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:E13" si="1">_xlfn.STDEV.S(C2:C11)</f>
+        <v>5.3477174672315497</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.7755578153232754E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>6.33263154006471E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA77A7C-9D95-4B67-9BD9-3710165A6307}">
   <dimension ref="A1:E13"/>
   <sheetViews>

--- a/Run 2/Run2PerformanceData.xlsx
+++ b/Run 2/Run2PerformanceData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amose\Documents\GitHub\CTLiverSegmentation\Run 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C928E4E-124D-4426-943F-1BE16EF225AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B832C6-8FB3-49DF-8FDB-3209F615A1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{208B1CEA-3373-4165-BDCF-E47B75CA6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tests" sheetId="9" r:id="rId1"/>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F49CB-B145-40E7-8FE4-38A3938E89FA}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA77A7C-9D95-4B67-9BD9-3710165A6307}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
